--- a/Pitta_rawdata.xlsx
+++ b/Pitta_rawdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agoujun/Desktop/Pitta/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3FADC36-6C0F-344D-8FF0-35C86AD8B2DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8548687-C4F7-5F45-ADDD-F687CC5F6393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27940" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,12 +75,6 @@
     <t>白目部分が赤く充血する</t>
   </si>
   <si>
-    <t>お腹がいっぱいになるまで大食する</t>
-  </si>
-  <si>
-    <t>冷たい飲み物や食べ物を食べずにおれない</t>
-  </si>
-  <si>
     <t>口内炎ができている。あるいは口臭が強い</t>
   </si>
   <si>
@@ -91,6 +85,14 @@
   </si>
   <si>
     <t>大便が軟便ぎみで下痢しやすい</t>
+  </si>
+  <si>
+    <t>冷たい飲み物や食べ物を食べずにいられない</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>お腹がいっぱいになるまで大食いする</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -442,7 +444,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
@@ -570,8 +572,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>11</v>
+      <c r="B6" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
@@ -593,8 +595,8 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>12</v>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>4</v>
@@ -617,7 +619,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
         <v>4</v>
@@ -640,7 +642,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
         <v>4</v>
@@ -663,7 +665,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
@@ -686,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
         <v>4</v>
